--- a/biology/Médecine/Artère_du_labyrinthe/Artère_du_labyrinthe.xlsx
+++ b/biology/Médecine/Artère_du_labyrinthe/Artère_du_labyrinthe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_du_labyrinthe</t>
+          <t>Artère_du_labyrinthe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'artère du labyrinthe (ou artère auditive interne ou artère labyrinthique) est une branche de l'artère cérébelleuse intéro-antérieure ou de l'artère basilaire[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'artère du labyrinthe (ou artère auditive interne ou artère labyrinthique) est une branche de l'artère cérébelleuse intéro-antérieure ou de l'artère basilaire,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_du_labyrinthe</t>
+          <t>Artère_du_labyrinthe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle accompagne le nerf vestibulocochléaire (nerf crânien VIII), le nerf facial et le nerf intermédiaire à travers le méat acoustique interne[1].
-Elle se divise en artère cochléaire commune et en artère vestibulaire antérieure (ou artère du vestibule)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle accompagne le nerf vestibulocochléaire (nerf crânien VIII), le nerf facial et le nerf intermédiaire à travers le méat acoustique interne.
+Elle se divise en artère cochléaire commune et en artère vestibulaire antérieure (ou artère du vestibule).
 L'artère cochléaire commune se divise elle-même en trois branches : l'artère cochléaire propre, l'artère vestibulocochléaire et l’artère spirale du modiolus.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_du_labyrinthe</t>
+          <t>Artère_du_labyrinthe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Zone de vascularisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'artère labyrinthique et l'ensemble de ses branches irrigue l'oreille interne[1],[3].
-Elle irrigue également le nerf vestibulocochléaire sur toute sa longueur[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'artère labyrinthique et l'ensemble de ses branches irrigue l'oreille interne,.
+Elle irrigue également le nerf vestibulocochléaire sur toute sa longueur.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_du_labyrinthe</t>
+          <t>Artère_du_labyrinthe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'artère labyrinthique peut s'obstruer. Cela peut entraîner une perte d'audition homolatérale et des troubles de l'équilibre[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'artère labyrinthique peut s'obstruer. Cela peut entraîner une perte d'audition homolatérale et des troubles de l'équilibre.
 </t>
         </is>
       </c>
